--- a/outputs/Question2.1.xlsx
+++ b/outputs/Question2.1.xlsx
@@ -2,32 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB2263-4D2F-44E5-88AD-1EA42CA445F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0B0D1-B5A2-4288-B726-D79EA72C78D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeastSquares" sheetId="3" r:id="rId1"/>
-    <sheet name="L1Reg" sheetId="1" r:id="rId2"/>
-    <sheet name="L2Reg" sheetId="2" r:id="rId3"/>
+    <sheet name="L2Reg" sheetId="2" r:id="rId2"/>
+    <sheet name="L1Reg" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>IterationNumber</t>
   </si>
   <si>
-    <t>Errors</t>
+    <t>L2Obective</t>
+  </si>
+  <si>
+    <t>L1Obective</t>
+  </si>
+  <si>
+    <t>LSObjective</t>
   </si>
 </sst>
 </file>
@@ -511,9 +517,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -606,16 +611,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Errors vs Iteration Count for </a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>Least</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Least Squares regression</a:t>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Squares </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Objective vs Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -650,17 +661,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4923452870778399E-2"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.87756107409650719"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -673,7 +674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>LSObjective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -702,6 +703,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LeastSquares!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>LeastSquares!$B$2:$B$13</c:f>
@@ -709,40 +755,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>-9.7869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>-2.6210000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>-5.1619999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.9999999999999997E-7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.9999999999999995E-8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.0000000000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.0000000000000001E-10</c:v>
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20619999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +796,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA4F-4206-A228-1CB36EE1634F}"/>
+              <c16:uniqueId val="{00000000-5013-442A-900B-81DC3A83DB4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728714704"/>
-        <c:axId val="728717656"/>
+        <c:axId val="697353184"/>
+        <c:axId val="697355152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="728714704"/>
+        <c:axId val="697353184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,6 +832,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -822,14 +869,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728717656"/>
+        <c:crossAx val="697355152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="728717656"/>
+        <c:axId val="697355152"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -885,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728714704"/>
+        <c:crossAx val="697353184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -968,16 +1014,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Errors vs Iteration Count for </a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>Objective Function vs Iteration Number for different Methods</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Least Squares regression</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1013,8 +1052,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1025,84 +1065,354 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>LSObjective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeastSquares!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>LeastSquares!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>-9.7869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>-2.6210000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>-5.1619999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.9999999999999997E-7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.9999999999999995E-8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.0000000000000002E-9</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.0000000000000001E-10</c:v>
+                  <c:v>0.19170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20619999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0307-47E1-8BA0-0294722EE758}"/>
+              <c16:uniqueId val="{00000000-A877-4480-8E2D-7D23477446CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeastSquares!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2Obective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeastSquares!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeastSquares!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.7759999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5810000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A877-4480-8E2D-7D23477446CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeastSquares!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1Obective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>LeastSquares!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LeastSquares!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3510000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.671E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21510000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A877-4480-8E2D-7D23477446CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,30 +1424,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728714704"/>
-        <c:axId val="728717656"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="728714704"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="697342032"/>
+        <c:axId val="697346624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="697342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1146,8 +1445,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1174,12 +1473,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728717656"/>
+        <c:crossAx val="697346624"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="728717656"/>
+        <c:axId val="697346624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,14 +1507,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1236,9 +1532,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728714704"/>
+        <c:crossAx val="697342032"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1248,6 +1544,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1319,16 +1646,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Errors with Iteration Count</a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>L2Norm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>. Method: Norm 1 Ridge</a:t>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Objective vs Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1340,194 +1673,165 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10772845112152392"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.86977666135291376"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>L1Reg!$B$1</c:f>
+              <c:f>L2Reg!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>L1Reg!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.0000000000000001E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C200-4E1B-A9F4-894F5F9BFA99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>L1Reg!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>L2Obective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>L1Reg!$B$2:$B$17</c:f>
+              <c:f>L2Reg!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0000000000000002E-4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.0000000000000001E-10</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>L2Reg!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.7759999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5810000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C200-4E1B-A9F4-894F5F9BFA99}"/>
+              <c16:uniqueId val="{00000000-04AD-4A18-A896-65E5601DFD2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1539,17 +1843,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="490103992"/>
-        <c:axId val="490097432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="490103992"/>
+        <c:axId val="697353184"/>
+        <c:axId val="697355152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="697353184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1558,8 +1876,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1586,17 +1904,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490097432"/>
+        <c:crossAx val="697355152"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="490097432"/>
+        <c:axId val="697355152"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1621,8 +1935,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1646,14 +1966,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490103992"/>
+        <c:crossAx val="697353184"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1661,32 +1977,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1739,16 +2049,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Errors with Iteration Count</a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>L2Norm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>. Method: Norm 1 Ridge</a:t>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Objective vs Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1783,22 +2099,12 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.1368532921114909E-2"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.8861365795533227"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1806,87 +2112,129 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>L1Obective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>L1Reg!$B$2:$B$17</c:f>
+              <c:f>L1Reg!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0000000000000002E-4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.0000000000000001E-10</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>L1Reg!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3510000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.671E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21510000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-746A-4760-A72D-8E743E8E3DAB}"/>
+              <c16:uniqueId val="{00000000-0BC6-49BF-AD28-3CBA7519F8C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1898,17 +2246,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="490103992"/>
-        <c:axId val="490097432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="490103992"/>
+        <c:axId val="697353184"/>
+        <c:axId val="697355152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="697353184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1917,8 +2279,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1945,15 +2307,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490097432"/>
+        <c:crossAx val="697355152"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="490097432"/>
+        <c:axId val="697355152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,317 +2338,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490103992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Errors with Iteration Count</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>. Method: Norm 2 Ridge</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11181843067162617"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.86568668180281161"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>L2Reg!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Errors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>L2Reg!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.0000000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.0000000000000002E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DA6-4FC6-80CA-1CF5D97BA30F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="490103992"/>
-        <c:axId val="490097432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="490103992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2316,69 +2369,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490097432"/>
+        <c:crossAx val="697353184"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="490097432"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490103992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2388,410 +2381,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Errors with Iteration Count. Method: Norm 2 Ridge</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11181843067162617"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.86568668180281161"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>L2Reg!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Errors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>L2Reg!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.0000000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.0000000000000002E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-578E-4555-8DC0-C96F5D4E5075}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="490103992"/>
-        <c:axId val="490097432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="490103992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490097432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="490097432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490103992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2987,46 +2578,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3544,7 +3095,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3571,8 +3122,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3673,7 +3224,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3705,10 +3256,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3748,23 +3299,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3869,8 +3419,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4002,20 +3552,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4029,17 +3578,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4060,7 +3598,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4087,8 +3625,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4168,11 +3706,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4183,11 +3716,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4199,7 +3727,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4219,9 +3747,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4234,10 +3759,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4277,22 +3802,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4397,8 +3923,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4530,19 +4056,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4556,6 +4083,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4576,7 +4114,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4603,8 +4141,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4684,11 +4222,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4699,11 +4232,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4715,7 +4243,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4735,9 +4263,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4750,10 +4275,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4793,22 +4318,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4913,8 +4439,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5046,19 +4572,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5072,522 +4599,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5611,23 +4633,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BA4A7C-758C-40E4-9003-DA612D42D9F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF13E499-C699-431A-82EF-533ECA5046DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5647,29 +4669,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347661</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEA5BED-42F2-4C26-BDB9-3EDF0B06F441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E76A04-D6D6-4347-9E86-5F5AD24BE650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5690,102 +4710,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13EA2F5-9171-403B-8452-546F770A671E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B511C9C-E15D-43D7-8826-46D393933AF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA2E4F2-0A0D-4F56-A594-3DC547F13D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74D8C4A-D30C-4A8B-843D-C0ADDA199616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5805,25 +4746,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C28CA80-B8C7-456A-986E-B4C2C7CD002A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B0A064-D1F1-4CE7-A04D-5689B4C85F3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5837,7 +4783,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5849,7 +4795,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Slipstream">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5857,34 +4803,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="212745"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="B4DCFA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4E67C8"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="5ECCF3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="A7EA52"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="5DCEAF"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF8021"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F14124"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="56C7AA"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="59A8D1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -6143,116 +5089,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>-9.7869999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>-7.7759999999999996E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.3510000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.0000000000000002E-3</v>
+        <v>-2.6210000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>-1.5810000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>-1.431E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>-5.1619999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.5469999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.671E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1343</v>
+      </c>
+      <c r="C6">
+        <v>0.1011</v>
+      </c>
+      <c r="D6">
+        <v>0.1071</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.0000000000000002E-4</v>
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.1613</v>
+      </c>
+      <c r="D7">
+        <v>0.17549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.0000000000000002E-5</v>
+      <c r="B8">
+        <v>0.2049</v>
+      </c>
+      <c r="C8">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.15620000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>6.9999999999999999E-6</v>
+      <c r="B9">
+        <v>0.2059</v>
+      </c>
+      <c r="C9">
+        <v>0.2014</v>
+      </c>
+      <c r="D9">
+        <v>0.20730000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>5.9999999999999997E-7</v>
+      <c r="B10">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.2056</v>
+      </c>
+      <c r="D10">
+        <v>0.2142</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>5.9999999999999995E-8</v>
+      <c r="B11">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.2145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>4.0000000000000002E-9</v>
+      <c r="B12">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.2072</v>
+      </c>
+      <c r="D12">
+        <v>0.215</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2.0000000000000001E-10</v>
+      <c r="B13">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.2072</v>
+      </c>
+      <c r="D13">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.21510000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6262,11 +5306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6284,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>-7.7759999999999996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>-1.5810000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08</v>
+        <v>1.5469999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.04</v>
+        <v>0.1613</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0.18129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +5384,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.0000000000000001E-3</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.0000000000000001E-3</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +5400,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.0000000000000002E-4</v>
+        <v>0.20710000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,47 +5408,15 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.0000000000000001E-4</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4.0000000000000001E-10</v>
+      <c r="B13">
+        <v>0.2072</v>
       </c>
     </row>
   </sheetData>
@@ -6414,11 +5426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6428,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +5456,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>5.3510000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>-1.431E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08</v>
+        <v>3.671E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.02</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.0000000000000001E-3</v>
+        <v>0.17549999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.15620000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.0000000000000004E-4</v>
+        <v>0.20730000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,31 +5512,63 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.0000000000000001E-4</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>5.0000000000000004E-6</v>
+      <c r="B11">
+        <v>0.2145</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>9.9999999999999995E-8</v>
+      <c r="B12">
+        <v>0.215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>4.0000000000000002E-9</v>
+      <c r="B13">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.21510000000000001</v>
       </c>
     </row>
   </sheetData>
